--- a/documentation/要件定義.xlsx
+++ b/documentation/要件定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="19425" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="19425" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧 (Admin)" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="177">
   <si>
     <t>No</t>
   </si>
@@ -1563,6 +1563,108 @@
   </si>
   <si>
     <t>Sort: レッスンレベル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Google Driveにファイルアップロード（Google Drive API　使用）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単語と画像アップロードする</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単語新規登録・編集・削除</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単語一覧・検索</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トピック・レッスン管理</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トピック・レッスン一覧画面</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トピック・レッスン新規登録・編集画面</t>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トピック・レッスン一覧・検索</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トピック・レッスン新規登録・編集・削除画面</t>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1766,7 +1868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2129,6 +2231,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14240,7 +14345,7 @@
   </sheetPr>
   <dimension ref="A1:IX25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -14258,16 +14363,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="1:258" s="4" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -14986,10 +15091,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW57"/>
+  <dimension ref="A1:IW60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15005,15 +15110,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" spans="1:257" s="70" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="90" t="s">
@@ -15310,14 +15415,14 @@
     </row>
     <row r="4" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A33" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="132" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="125" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="78" t="s">
@@ -15333,9 +15438,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="132"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="76"/>
-      <c r="D5" s="125"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="78" t="s">
         <v>138</v>
       </c>
@@ -15349,9 +15454,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="132"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="76"/>
-      <c r="D6" s="126"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="78" t="s">
         <v>139</v>
       </c>
@@ -15365,7 +15470,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="132"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="76"/>
       <c r="D7" s="75" t="s">
         <v>35</v>
@@ -15383,9 +15488,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="132"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="76"/>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="128" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="78" t="s">
@@ -15401,9 +15506,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="132"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="76"/>
-      <c r="D9" s="128"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="78" t="s">
         <v>159</v>
       </c>
@@ -15417,12 +15522,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="132"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="76"/>
       <c r="D10" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="78" t="s">
+        <v>168</v>
+      </c>
       <c r="F10" s="77"/>
       <c r="G10" s="78" t="s">
         <v>112</v>
@@ -15433,7 +15540,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="132"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="76"/>
       <c r="D11" s="75" t="s">
         <v>158</v>
@@ -15448,7 +15555,7 @@
     </row>
     <row r="12" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="132"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="76"/>
       <c r="D12" s="75" t="s">
         <v>165</v>
@@ -15464,7 +15571,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="76"/>
       <c r="D13" s="75" t="s">
         <v>49</v>
@@ -15484,13 +15591,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="130" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="97" t="s">
@@ -15506,9 +15613,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="130"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="97" t="s">
         <v>161</v>
       </c>
@@ -15522,7 +15629,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="96" t="s">
         <v>30</v>
       </c>
@@ -15542,7 +15649,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="130"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="96" t="s">
         <v>44</v>
       </c>
@@ -15558,92 +15665,79 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="103" t="s">
-        <v>14</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="96"/>
+      <c r="D18" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="103" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="99"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="107" t="s">
+      <c r="B20" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="103" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="106" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="107" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="100"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="111" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="103" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15652,14 +15746,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111" t="s">
+      <c r="B23" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="105"/>
+      <c r="G23" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15668,16 +15766,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="105"/>
+      <c r="G24" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15686,14 +15784,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116" t="s">
+      <c r="B25" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="111" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15702,16 +15802,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="121" t="s">
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15720,32 +15818,32 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="119" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="120"/>
-      <c r="G27" s="121"/>
+      <c r="B27" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="119" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="120"/>
-      <c r="G28" s="121" t="s">
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15754,14 +15852,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="117"/>
+      <c r="B29" s="117" t="s">
+        <v>11</v>
+      </c>
       <c r="C29" s="118"/>
       <c r="D29" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="119" t="s">
-        <v>143</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E29" s="120"/>
       <c r="F29" s="120"/>
       <c r="G29" s="121" t="s">
         <v>14</v>
@@ -15772,37 +15870,33 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82" t="s">
-        <v>63</v>
-      </c>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="120"/>
+      <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82" t="s">
-        <v>63</v>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="120"/>
+      <c r="G31" s="121" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
@@ -15810,36 +15904,80 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="79"/>
+      <c r="B33" s="64" t="s">
+        <v>16</v>
+      </c>
       <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
+      <c r="D33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IV34" s="66"/>
-      <c r="IW34" s="66"/>
+      <c r="A34" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IV35" s="66"/>
-      <c r="IW35" s="66"/>
+      <c r="A35" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IV36" s="66"/>
-      <c r="IW36" s="66"/>
+      <c r="A36" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
     </row>
     <row r="37" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="IV37" s="66"/>
@@ -15925,6 +16063,18 @@
       <c r="IV57" s="66"/>
       <c r="IW57" s="66"/>
     </row>
+    <row r="58" spans="256:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="IV58" s="66"/>
+      <c r="IW58" s="66"/>
+    </row>
+    <row r="59" spans="256:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="IV59" s="66"/>
+      <c r="IW59" s="66"/>
+    </row>
+    <row r="60" spans="256:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="IV60" s="66"/>
+      <c r="IW60" s="66"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
@@ -15985,15 +16135,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" spans="1:257" s="70" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
@@ -17008,15 +17158,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:257" s="4" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">

--- a/documentation/要件定義.xlsx
+++ b/documentation/要件定義.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="178">
   <si>
     <t>No</t>
   </si>
@@ -1664,6 +1664,13 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image&amp;audio 取得</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1868,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2236,6 +2243,12 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2279,6 +2292,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14363,16 +14379,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:258" s="4" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -15091,10 +15107,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW60"/>
+  <dimension ref="A1:IW61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15110,15 +15126,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
     </row>
     <row r="2" spans="1:257" s="70" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="90" t="s">
@@ -15415,14 +15431,14 @@
     </row>
     <row r="4" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A37" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="134" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="127" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="78" t="s">
@@ -15438,9 +15454,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="76"/>
-      <c r="D5" s="126"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="78" t="s">
         <v>138</v>
       </c>
@@ -15454,9 +15470,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="76"/>
-      <c r="D6" s="127"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="78" t="s">
         <v>139</v>
       </c>
@@ -15470,7 +15486,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="76"/>
       <c r="D7" s="75" t="s">
         <v>35</v>
@@ -15488,9 +15504,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="133"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="76"/>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="130" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="78" t="s">
@@ -15506,9 +15522,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="76"/>
-      <c r="D9" s="129"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="78" t="s">
         <v>159</v>
       </c>
@@ -15522,7 +15538,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="133"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="76"/>
       <c r="D10" s="75" t="s">
         <v>37</v>
@@ -15540,7 +15556,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="76"/>
       <c r="D11" s="75" t="s">
         <v>158</v>
@@ -15555,7 +15571,7 @@
     </row>
     <row r="12" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="133"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="76"/>
       <c r="D12" s="75" t="s">
         <v>165</v>
@@ -15571,7 +15587,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="134"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="76"/>
       <c r="D13" s="75" t="s">
         <v>49</v>
@@ -15586,78 +15602,69 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="136" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="98" t="s">
-        <v>14</v>
-      </c>
+    <row r="14" spans="1:257" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="131"/>
+      <c r="B15" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="132" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="97" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="98" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:257" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>47</v>
-      </c>
+      <c r="B16" s="137"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="133"/>
       <c r="E16" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="96" t="s">
-        <v>41</v>
+        <v>161</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="98" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="96" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="96" t="s">
@@ -15665,99 +15672,99 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="122" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="96"/>
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="133"/>
+      <c r="C18" s="96" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>175</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="99"/>
-      <c r="G18" s="96"/>
+      <c r="G18" s="96" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="122"/>
+      <c r="B19" s="122" t="s">
+        <v>172</v>
+      </c>
       <c r="C19" s="96"/>
       <c r="D19" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="103" t="s">
-        <v>14</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="96"/>
     </row>
     <row r="21" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="101"/>
-      <c r="D21" s="100"/>
+      <c r="D21" s="100" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="103"/>
+        <v>170</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="103" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="A22" s="6"/>
       <c r="B22" s="100"/>
       <c r="C22" s="101"/>
-      <c r="D22" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="103" t="s">
-        <v>14</v>
-      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="100"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="23" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="107" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="103" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15766,13 +15773,15 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="104"/>
+      <c r="B24" s="104" t="s">
+        <v>24</v>
+      </c>
       <c r="C24" s="105"/>
       <c r="D24" s="106" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E24" s="106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="105"/>
       <c r="G24" s="107" t="s">
@@ -15784,16 +15793,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="105"/>
+      <c r="G25" s="107" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15802,10 +15811,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="108"/>
+      <c r="B26" s="108" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" s="109"/>
       <c r="D26" s="109" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" s="110"/>
       <c r="F26" s="110"/>
@@ -15818,16 +15829,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116" t="s">
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="111" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15836,10 +15845,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="112"/>
+      <c r="B28" s="112" t="s">
+        <v>27</v>
+      </c>
       <c r="C28" s="113"/>
       <c r="D28" s="114" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E28" s="115"/>
       <c r="F28" s="115"/>
@@ -15852,16 +15863,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="121" t="s">
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15870,16 +15879,18 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="117" t="s">
+        <v>11</v>
+      </c>
       <c r="C30" s="118"/>
       <c r="D30" s="119" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="119" t="s">
-        <v>145</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E30" s="120"/>
       <c r="F30" s="120"/>
-      <c r="G30" s="121"/>
+      <c r="G30" s="121" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
@@ -15889,15 +15900,13 @@
       <c r="B31" s="117"/>
       <c r="C31" s="118"/>
       <c r="D31" s="119" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="E31" s="119" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F31" s="120"/>
-      <c r="G31" s="121" t="s">
-        <v>14</v>
-      </c>
+      <c r="G31" s="121"/>
     </row>
     <row r="32" spans="1:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
@@ -15907,7 +15916,7 @@
       <c r="B32" s="117"/>
       <c r="C32" s="118"/>
       <c r="D32" s="119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="119" t="s">
         <v>143</v>
@@ -15922,19 +15931,17 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82" t="s">
-        <v>63</v>
+      <c r="B33" s="117"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
@@ -15942,13 +15949,15 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="64" t="s">
+        <v>16</v>
+      </c>
       <c r="C34" s="79"/>
       <c r="D34" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="81"/>
       <c r="G34" s="82" t="s">
@@ -15960,12 +15969,18 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="79"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
+      <c r="D35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
@@ -15980,8 +15995,16 @@
       <c r="G36" s="79"/>
     </row>
     <row r="37" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IV37" s="66"/>
-      <c r="IW37" s="66"/>
+      <c r="A37" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
     </row>
     <row r="38" spans="1:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="IV38" s="66"/>
@@ -16075,15 +16098,19 @@
       <c r="IV60" s="66"/>
       <c r="IW60" s="66"/>
     </row>
+    <row r="61" spans="256:257" ht="30.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="IV61" s="66"/>
+      <c r="IW61" s="66"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -16135,15 +16162,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
     </row>
     <row r="2" spans="1:257" s="70" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
@@ -17158,15 +17185,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:257" s="4" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">

--- a/documentation/要件定義.xlsx
+++ b/documentation/要件定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="19425" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="19425" windowHeight="8070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧 (Admin)" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
   <si>
     <t>No</t>
   </si>
@@ -829,10 +829,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Vocabulary exercise画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>初級</t>
     <rPh sb="0" eb="2">
       <t>ショキュウ</t>
@@ -1141,6 +1137,14 @@
   </si>
   <si>
     <t>初心者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vocabulary exercise画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Level Select画面</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -26524,8 +26528,8 @@
   </sheetPr>
   <dimension ref="A1:IX191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -26821,7 +26825,7 @@
     </row>
     <row r="2" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>8</v>
@@ -26845,7 +26849,7 @@
     </row>
     <row r="3" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>7</v>
@@ -26869,7 +26873,7 @@
     </row>
     <row r="4" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
@@ -26887,7 +26891,7 @@
     </row>
     <row r="5" spans="1:258" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -26905,7 +26909,7 @@
     </row>
     <row r="6" spans="1:258" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
@@ -26923,7 +26927,7 @@
     </row>
     <row r="7" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>74</v>
@@ -26941,7 +26945,7 @@
     </row>
     <row r="8" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -26957,7 +26961,7 @@
     </row>
     <row r="9" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="31"/>
@@ -26973,7 +26977,7 @@
     </row>
     <row r="10" spans="1:258" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>39</v>
@@ -26995,7 +26999,7 @@
     </row>
     <row r="11" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
@@ -27015,7 +27019,7 @@
     </row>
     <row r="12" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
@@ -27031,7 +27035,7 @@
     </row>
     <row r="13" spans="1:258" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
@@ -27051,7 +27055,7 @@
     </row>
     <row r="14" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
@@ -27067,7 +27071,7 @@
     </row>
     <row r="15" spans="1:258" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>34</v>
@@ -27089,7 +27093,7 @@
     </row>
     <row r="16" spans="1:258" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
@@ -27107,7 +27111,7 @@
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
@@ -27123,7 +27127,7 @@
     </row>
     <row r="18" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="8"/>
@@ -27141,7 +27145,7 @@
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8"/>
@@ -27157,7 +27161,7 @@
     </row>
     <row r="20" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>45</v>
@@ -27179,7 +27183,7 @@
     </row>
     <row r="21" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -27199,7 +27203,7 @@
     </row>
     <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="8"/>
@@ -27217,7 +27221,7 @@
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="8" t="s">
@@ -27237,7 +27241,7 @@
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="8"/>
@@ -27253,7 +27257,7 @@
     </row>
     <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="8" t="s">
@@ -27273,7 +27277,7 @@
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="8"/>
@@ -27289,7 +27293,7 @@
     </row>
     <row r="27" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>46</v>
@@ -27311,7 +27315,7 @@
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
@@ -27331,7 +27335,7 @@
     </row>
     <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="8"/>
@@ -27347,7 +27351,7 @@
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
@@ -27367,7 +27371,7 @@
     </row>
     <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="8"/>
@@ -27383,7 +27387,7 @@
     </row>
     <row r="32" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="8" t="s">
@@ -27403,7 +27407,7 @@
     </row>
     <row r="33" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="8"/>
@@ -27419,7 +27423,7 @@
     </row>
     <row r="34" spans="1:258" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="8" t="s">
@@ -27439,7 +27443,7 @@
     </row>
     <row r="35" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="8"/>
@@ -27455,7 +27459,7 @@
     </row>
     <row r="36" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
@@ -28746,9 +28750,9 @@
   </sheetPr>
   <dimension ref="A1:IW30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29041,7 +29045,7 @@
     </row>
     <row r="2" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>8</v>
@@ -29059,18 +29063,18 @@
     </row>
     <row r="3" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="46" t="s">
@@ -29079,7 +29083,7 @@
     </row>
     <row r="4" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -29095,12 +29099,12 @@
     </row>
     <row r="5" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
@@ -29111,7 +29115,7 @@
     </row>
     <row r="6" spans="1:257" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>118</v>
@@ -29129,7 +29133,7 @@
     </row>
     <row r="7" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>39</v>
@@ -29147,7 +29151,7 @@
     </row>
     <row r="8" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
@@ -29163,13 +29167,13 @@
     </row>
     <row r="9" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>36</v>
@@ -29183,11 +29187,11 @@
     </row>
     <row r="10" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>120</v>
@@ -29201,14 +29205,14 @@
     </row>
     <row r="11" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="22"/>
@@ -29219,13 +29223,15 @@
     </row>
     <row r="12" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -29233,7 +29239,7 @@
     </row>
     <row r="13" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -29253,12 +29259,12 @@
     </row>
     <row r="14" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="22"/>
@@ -29269,7 +29275,7 @@
     </row>
     <row r="15" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
@@ -29287,12 +29293,12 @@
     </row>
     <row r="16" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="22"/>
@@ -29303,7 +29309,7 @@
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
@@ -29321,12 +29327,12 @@
     </row>
     <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -29337,13 +29343,13 @@
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>60</v>
@@ -29357,14 +29363,14 @@
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -29375,13 +29381,13 @@
     </row>
     <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>62</v>
@@ -29395,14 +29401,14 @@
     </row>
     <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -29413,7 +29419,7 @@
     </row>
     <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>49</v>
@@ -29431,12 +29437,12 @@
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -29447,7 +29453,7 @@
     </row>
     <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>48</v>
@@ -29465,12 +29471,12 @@
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -29481,14 +29487,14 @@
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -29499,12 +29505,12 @@
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -29515,12 +29521,12 @@
     </row>
     <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -29531,7 +29537,7 @@
     </row>
     <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>

--- a/documentation/要件定義.xlsx
+++ b/documentation/要件定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="19425" windowHeight="8070" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="19425" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧 (Admin)" sheetId="4" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="画面一覧(Front)" sheetId="2" r:id="rId3"/>
     <sheet name="画面遷移図(Front)" sheetId="7" r:id="rId4"/>
     <sheet name="Exercise List" sheetId="9" r:id="rId5"/>
+    <sheet name="API" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="重要度">'画面一覧 (Admin)'!$J$2:$J$3</definedName>
+    <definedName name="重要度">'画面一覧 (Admin)'!$K$2:$K$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="257">
   <si>
     <t>No</t>
   </si>
@@ -374,23 +375,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Add new vocabulary lession画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Document</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Document Management画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>All document category list画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Add new document category画面</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -825,10 +814,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>All vocabulary lession list画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>初級</t>
     <rPh sb="0" eb="2">
       <t>ショキュウ</t>
@@ -1147,12 +1132,228 @@
     <t>Level Select画面</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>meow-learning/admin/vocabulary/topic/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/vocabulary/topic/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/vocabulary</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit vocabulary topic画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/vocabulary/topic/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/vocabulary/lesson/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>All vocabulary lesson list画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Add new vocabulary lesson画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/vocabulary/lesson/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HOME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/login</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/error</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/reading</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/reading/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit Reading Lession 画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit Listening Lession 画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/reading/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/listening</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/listening/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/listening/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/writing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/writing/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/writing/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/speaking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/speaking/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/speaking/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit Speaking Lession 画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit Writing Lession 画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/four-skill</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/toeic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/toeic/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/toeic/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit TOEIC Exam画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit EILTS Exam画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit TOEFL Exam画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/eilts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/eilts/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/eilts/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/toefl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/toefl/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/exam/toefl/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/document</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit document category画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edit document画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/document-category</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/document-category/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/document-category/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/document/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meow-learning/admin/document/{id}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>All document category list画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Add new document category画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1180,6 +1381,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1259,31 +1468,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1336,38 +1534,8 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1380,9 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1406,13 +1571,35 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -26526,2195 +26713,2146 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX191"/>
+  <dimension ref="A1:IY201"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.75" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="26" customWidth="1"/>
-    <col min="9" max="258" width="16.375" style="1" customWidth="1"/>
-    <col min="259" max="16384" width="16.375" style="2"/>
+    <col min="1" max="1" width="7.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="45.375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="41" customWidth="1"/>
+    <col min="10" max="259" width="16.375" style="9" customWidth="1"/>
+    <col min="260" max="16384" width="16.375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:259" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11"/>
+      <c r="EW1" s="11"/>
+      <c r="EX1" s="11"/>
+      <c r="EY1" s="11"/>
+      <c r="EZ1" s="11"/>
+      <c r="FA1" s="11"/>
+      <c r="FB1" s="11"/>
+      <c r="FC1" s="11"/>
+      <c r="FD1" s="11"/>
+      <c r="FE1" s="11"/>
+      <c r="FF1" s="11"/>
+      <c r="FG1" s="11"/>
+      <c r="FH1" s="11"/>
+      <c r="FI1" s="11"/>
+      <c r="FJ1" s="11"/>
+      <c r="FK1" s="11"/>
+      <c r="FL1" s="11"/>
+      <c r="FM1" s="11"/>
+      <c r="FN1" s="11"/>
+      <c r="FO1" s="11"/>
+      <c r="FP1" s="11"/>
+      <c r="FQ1" s="11"/>
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11"/>
+      <c r="FT1" s="11"/>
+      <c r="FU1" s="11"/>
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="11"/>
+      <c r="FY1" s="11"/>
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="11"/>
+      <c r="GC1" s="11"/>
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="11"/>
+      <c r="GG1" s="11"/>
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="11"/>
+      <c r="GK1" s="11"/>
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="11"/>
+      <c r="GO1" s="11"/>
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="11"/>
+      <c r="GS1" s="11"/>
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="11"/>
+      <c r="GW1" s="11"/>
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="11"/>
+      <c r="HA1" s="11"/>
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="11"/>
+      <c r="HE1" s="11"/>
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="11"/>
+      <c r="HI1" s="11"/>
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="11"/>
+      <c r="HM1" s="11"/>
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="11"/>
+      <c r="HQ1" s="11"/>
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="11"/>
+      <c r="HY1" s="11"/>
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="11"/>
+      <c r="IC1" s="11"/>
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="11"/>
+      <c r="IG1" s="11"/>
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="11"/>
+      <c r="IK1" s="11"/>
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="11"/>
+      <c r="IO1" s="11"/>
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="11"/>
+      <c r="IS1" s="11"/>
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="11"/>
+      <c r="IW1" s="11"/>
+      <c r="IX1" s="11"/>
+      <c r="IY1" s="11"/>
+    </row>
+    <row r="2" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:259" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:259" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:259" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:259" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:259" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:259" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:259" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3"/>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3"/>
-      <c r="CY1" s="3"/>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="3"/>
-      <c r="DB1" s="3"/>
-      <c r="DC1" s="3"/>
-      <c r="DD1" s="3"/>
-      <c r="DE1" s="3"/>
-      <c r="DF1" s="3"/>
-      <c r="DG1" s="3"/>
-      <c r="DH1" s="3"/>
-      <c r="DI1" s="3"/>
-      <c r="DJ1" s="3"/>
-      <c r="DK1" s="3"/>
-      <c r="DL1" s="3"/>
-      <c r="DM1" s="3"/>
-      <c r="DN1" s="3"/>
-      <c r="DO1" s="3"/>
-      <c r="DP1" s="3"/>
-      <c r="DQ1" s="3"/>
-      <c r="DR1" s="3"/>
-      <c r="DS1" s="3"/>
-      <c r="DT1" s="3"/>
-      <c r="DU1" s="3"/>
-      <c r="DV1" s="3"/>
-      <c r="DW1" s="3"/>
-      <c r="DX1" s="3"/>
-      <c r="DY1" s="3"/>
-      <c r="DZ1" s="3"/>
-      <c r="EA1" s="3"/>
-      <c r="EB1" s="3"/>
-      <c r="EC1" s="3"/>
-      <c r="ED1" s="3"/>
-      <c r="EE1" s="3"/>
-      <c r="EF1" s="3"/>
-      <c r="EG1" s="3"/>
-      <c r="EH1" s="3"/>
-      <c r="EI1" s="3"/>
-      <c r="EJ1" s="3"/>
-      <c r="EK1" s="3"/>
-      <c r="EL1" s="3"/>
-      <c r="EM1" s="3"/>
-      <c r="EN1" s="3"/>
-      <c r="EO1" s="3"/>
-      <c r="EP1" s="3"/>
-      <c r="EQ1" s="3"/>
-      <c r="ER1" s="3"/>
-      <c r="ES1" s="3"/>
-      <c r="ET1" s="3"/>
-      <c r="EU1" s="3"/>
-      <c r="EV1" s="3"/>
-      <c r="EW1" s="3"/>
-      <c r="EX1" s="3"/>
-      <c r="EY1" s="3"/>
-      <c r="EZ1" s="3"/>
-      <c r="FA1" s="3"/>
-      <c r="FB1" s="3"/>
-      <c r="FC1" s="3"/>
-      <c r="FD1" s="3"/>
-      <c r="FE1" s="3"/>
-      <c r="FF1" s="3"/>
-      <c r="FG1" s="3"/>
-      <c r="FH1" s="3"/>
-      <c r="FI1" s="3"/>
-      <c r="FJ1" s="3"/>
-      <c r="FK1" s="3"/>
-      <c r="FL1" s="3"/>
-      <c r="FM1" s="3"/>
-      <c r="FN1" s="3"/>
-      <c r="FO1" s="3"/>
-      <c r="FP1" s="3"/>
-      <c r="FQ1" s="3"/>
-      <c r="FR1" s="3"/>
-      <c r="FS1" s="3"/>
-      <c r="FT1" s="3"/>
-      <c r="FU1" s="3"/>
-      <c r="FV1" s="3"/>
-      <c r="FW1" s="3"/>
-      <c r="FX1" s="3"/>
-      <c r="FY1" s="3"/>
-      <c r="FZ1" s="3"/>
-      <c r="GA1" s="3"/>
-      <c r="GB1" s="3"/>
-      <c r="GC1" s="3"/>
-      <c r="GD1" s="3"/>
-      <c r="GE1" s="3"/>
-      <c r="GF1" s="3"/>
-      <c r="GG1" s="3"/>
-      <c r="GH1" s="3"/>
-      <c r="GI1" s="3"/>
-      <c r="GJ1" s="3"/>
-      <c r="GK1" s="3"/>
-      <c r="GL1" s="3"/>
-      <c r="GM1" s="3"/>
-      <c r="GN1" s="3"/>
-      <c r="GO1" s="3"/>
-      <c r="GP1" s="3"/>
-      <c r="GQ1" s="3"/>
-      <c r="GR1" s="3"/>
-      <c r="GS1" s="3"/>
-      <c r="GT1" s="3"/>
-      <c r="GU1" s="3"/>
-      <c r="GV1" s="3"/>
-      <c r="GW1" s="3"/>
-      <c r="GX1" s="3"/>
-      <c r="GY1" s="3"/>
-      <c r="GZ1" s="3"/>
-      <c r="HA1" s="3"/>
-      <c r="HB1" s="3"/>
-      <c r="HC1" s="3"/>
-      <c r="HD1" s="3"/>
-      <c r="HE1" s="3"/>
-      <c r="HF1" s="3"/>
-      <c r="HG1" s="3"/>
-      <c r="HH1" s="3"/>
-      <c r="HI1" s="3"/>
-      <c r="HJ1" s="3"/>
-      <c r="HK1" s="3"/>
-      <c r="HL1" s="3"/>
-      <c r="HM1" s="3"/>
-      <c r="HN1" s="3"/>
-      <c r="HO1" s="3"/>
-      <c r="HP1" s="3"/>
-      <c r="HQ1" s="3"/>
-      <c r="HR1" s="3"/>
-      <c r="HS1" s="3"/>
-      <c r="HT1" s="3"/>
-      <c r="HU1" s="3"/>
-      <c r="HV1" s="3"/>
-      <c r="HW1" s="3"/>
-      <c r="HX1" s="3"/>
-      <c r="HY1" s="3"/>
-      <c r="HZ1" s="3"/>
-      <c r="IA1" s="3"/>
-      <c r="IB1" s="3"/>
-      <c r="IC1" s="3"/>
-      <c r="ID1" s="3"/>
-      <c r="IE1" s="3"/>
-      <c r="IF1" s="3"/>
-      <c r="IG1" s="3"/>
-      <c r="IH1" s="3"/>
-      <c r="II1" s="3"/>
-      <c r="IJ1" s="3"/>
-      <c r="IK1" s="3"/>
-      <c r="IL1" s="3"/>
-      <c r="IM1" s="3"/>
-      <c r="IN1" s="3"/>
-      <c r="IO1" s="3"/>
-      <c r="IP1" s="3"/>
-      <c r="IQ1" s="3"/>
-      <c r="IR1" s="3"/>
-      <c r="IS1" s="3"/>
-      <c r="IT1" s="3"/>
-      <c r="IU1" s="3"/>
-      <c r="IV1" s="3"/>
-      <c r="IW1" s="3"/>
-      <c r="IX1" s="3"/>
+      <c r="D31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>73</v>
+    <row r="32" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="40" t="s">
+    <row r="33" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I33" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="4" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>72</v>
+    <row r="34" spans="1:259" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:258" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>72</v>
+    <row r="35" spans="1:259" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:258" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>72</v>
+    <row r="36" spans="1:259" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34" t="s">
-        <v>70</v>
-      </c>
+    <row r="37" spans="1:259" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="36"/>
     </row>
-    <row r="8" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="34" t="s">
-        <v>70</v>
+    <row r="38" spans="1:259" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="34" t="s">
-        <v>70</v>
+    <row r="39" spans="1:259" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:258" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="40" spans="1:259" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="36"/>
     </row>
-    <row r="11" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>72</v>
+    <row r="41" spans="1:259" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="25" t="s">
-        <v>72</v>
+    <row r="42" spans="1:259" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:258" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="43" spans="1:259" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" s="36"/>
     </row>
-    <row r="14" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="25" t="s">
-        <v>72</v>
+    <row r="44" spans="1:259" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:258" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>72</v>
+    <row r="45" spans="1:259" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:258" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="25" t="s">
-        <v>72</v>
+    <row r="46" spans="1:259" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="47" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="41"/>
+      <c r="I47" s="9"/>
+      <c r="IX47" s="10"/>
+      <c r="IY47" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="48" spans="1:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="41"/>
+      <c r="I48" s="9"/>
+      <c r="IX48" s="10"/>
+      <c r="IY48" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="49" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="41"/>
+      <c r="I49" s="9"/>
+      <c r="IX49" s="10"/>
+      <c r="IY49" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="50" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="41"/>
+      <c r="I50" s="9"/>
+      <c r="IX50" s="10"/>
+      <c r="IY50" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="51" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="41"/>
+      <c r="I51" s="9"/>
+      <c r="IX51" s="10"/>
+      <c r="IY51" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="52" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="41"/>
+      <c r="I52" s="9"/>
+      <c r="IX52" s="10"/>
+      <c r="IY52" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="25" t="s">
-        <v>70</v>
-      </c>
+    <row r="53" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="41"/>
+      <c r="I53" s="9"/>
+      <c r="IX53" s="10"/>
+      <c r="IY53" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="25" t="s">
-        <v>70</v>
-      </c>
+    <row r="54" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="41"/>
+      <c r="I54" s="9"/>
+      <c r="IX54" s="10"/>
+      <c r="IY54" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="25" t="s">
-        <v>70</v>
-      </c>
+    <row r="55" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="41"/>
+      <c r="I55" s="9"/>
+      <c r="IX55" s="10"/>
+      <c r="IY55" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="25" t="s">
-        <v>70</v>
-      </c>
+    <row r="56" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="41"/>
+      <c r="I56" s="9"/>
+      <c r="IX56" s="10"/>
+      <c r="IY56" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="57" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="41"/>
+      <c r="I57" s="9"/>
+      <c r="IX57" s="10"/>
+      <c r="IY57" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="58" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="41"/>
+      <c r="I58" s="9"/>
+      <c r="IX58" s="10"/>
+      <c r="IY58" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="59" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="41"/>
+      <c r="I59" s="9"/>
+      <c r="IX59" s="10"/>
+      <c r="IY59" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="60" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="41"/>
+      <c r="I60" s="9"/>
+      <c r="IX60" s="10"/>
+      <c r="IY60" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="61" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="41"/>
+      <c r="I61" s="9"/>
+      <c r="IX61" s="10"/>
+      <c r="IY61" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="62" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="41"/>
+      <c r="I62" s="9"/>
+      <c r="IX62" s="10"/>
+      <c r="IY62" s="10"/>
     </row>
-    <row r="33" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="63" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="41"/>
+      <c r="I63" s="9"/>
+      <c r="IX63" s="10"/>
+      <c r="IY63" s="10"/>
     </row>
-    <row r="34" spans="1:258" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="64" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="41"/>
+      <c r="I64" s="9"/>
+      <c r="IX64" s="10"/>
+      <c r="IY64" s="10"/>
     </row>
-    <row r="35" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="65" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="41"/>
+      <c r="I65" s="9"/>
+      <c r="IX65" s="10"/>
+      <c r="IY65" s="10"/>
     </row>
-    <row r="36" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="25" t="s">
-        <v>72</v>
-      </c>
+    <row r="66" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="41"/>
+      <c r="I66" s="9"/>
+      <c r="IX66" s="10"/>
+      <c r="IY66" s="10"/>
     </row>
-    <row r="37" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="13"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="IW37" s="2"/>
-      <c r="IX37" s="2"/>
+    <row r="67" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="41"/>
+      <c r="I67" s="9"/>
+      <c r="IX67" s="10"/>
+      <c r="IY67" s="10"/>
     </row>
-    <row r="38" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="13"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="IW38" s="2"/>
-      <c r="IX38" s="2"/>
+    <row r="68" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="41"/>
+      <c r="I68" s="9"/>
+      <c r="IX68" s="10"/>
+      <c r="IY68" s="10"/>
     </row>
-    <row r="39" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="13"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="IW39" s="2"/>
-      <c r="IX39" s="2"/>
+    <row r="69" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="41"/>
+      <c r="I69" s="9"/>
+      <c r="IX69" s="10"/>
+      <c r="IY69" s="10"/>
     </row>
-    <row r="40" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="13"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="IW40" s="2"/>
-      <c r="IX40" s="2"/>
+    <row r="70" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="41"/>
+      <c r="I70" s="9"/>
+      <c r="IX70" s="10"/>
+      <c r="IY70" s="10"/>
     </row>
-    <row r="41" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="13"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="IW41" s="2"/>
-      <c r="IX41" s="2"/>
+    <row r="71" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="41"/>
+      <c r="I71" s="9"/>
+      <c r="IX71" s="10"/>
+      <c r="IY71" s="10"/>
     </row>
-    <row r="42" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="13"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="IW42" s="2"/>
-      <c r="IX42" s="2"/>
+    <row r="72" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="41"/>
+      <c r="I72" s="9"/>
+      <c r="IX72" s="10"/>
+      <c r="IY72" s="10"/>
     </row>
-    <row r="43" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="13"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="IW43" s="2"/>
-      <c r="IX43" s="2"/>
+    <row r="73" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="41"/>
+      <c r="I73" s="9"/>
+      <c r="IX73" s="10"/>
+      <c r="IY73" s="10"/>
     </row>
-    <row r="44" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="13"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="IW44" s="2"/>
-      <c r="IX44" s="2"/>
+    <row r="74" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="41"/>
+      <c r="I74" s="9"/>
+      <c r="IX74" s="10"/>
+      <c r="IY74" s="10"/>
     </row>
-    <row r="45" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="13"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="IW45" s="2"/>
-      <c r="IX45" s="2"/>
+    <row r="75" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="41"/>
+      <c r="I75" s="9"/>
+      <c r="IX75" s="10"/>
+      <c r="IY75" s="10"/>
     </row>
-    <row r="46" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="13"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="IW46" s="2"/>
-      <c r="IX46" s="2"/>
+    <row r="76" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="41"/>
+      <c r="I76" s="9"/>
+      <c r="IX76" s="10"/>
+      <c r="IY76" s="10"/>
     </row>
-    <row r="47" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="13"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="IW47" s="2"/>
-      <c r="IX47" s="2"/>
+    <row r="77" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="41"/>
+      <c r="I77" s="9"/>
+      <c r="IX77" s="10"/>
+      <c r="IY77" s="10"/>
     </row>
-    <row r="48" spans="1:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="13"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="IW48" s="2"/>
-      <c r="IX48" s="2"/>
+    <row r="78" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="41"/>
+      <c r="I78" s="9"/>
+      <c r="IX78" s="10"/>
+      <c r="IY78" s="10"/>
     </row>
-    <row r="49" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="13"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="IW49" s="2"/>
-      <c r="IX49" s="2"/>
+    <row r="79" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="41"/>
+      <c r="I79" s="9"/>
+      <c r="IX79" s="10"/>
+      <c r="IY79" s="10"/>
     </row>
-    <row r="50" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="13"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="IW50" s="2"/>
-      <c r="IX50" s="2"/>
+    <row r="80" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="41"/>
+      <c r="I80" s="9"/>
+      <c r="IX80" s="10"/>
+      <c r="IY80" s="10"/>
     </row>
-    <row r="51" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="13"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="IW51" s="2"/>
-      <c r="IX51" s="2"/>
+    <row r="81" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="41"/>
+      <c r="I81" s="9"/>
+      <c r="IX81" s="10"/>
+      <c r="IY81" s="10"/>
     </row>
-    <row r="52" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="13"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="IW52" s="2"/>
-      <c r="IX52" s="2"/>
+    <row r="82" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="41"/>
+      <c r="I82" s="9"/>
+      <c r="IX82" s="10"/>
+      <c r="IY82" s="10"/>
     </row>
-    <row r="53" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="13"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="IW53" s="2"/>
-      <c r="IX53" s="2"/>
+    <row r="83" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="41"/>
+      <c r="I83" s="9"/>
+      <c r="IX83" s="10"/>
+      <c r="IY83" s="10"/>
     </row>
-    <row r="54" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="13"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="IW54" s="2"/>
-      <c r="IX54" s="2"/>
+    <row r="84" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="41"/>
+      <c r="I84" s="9"/>
+      <c r="IX84" s="10"/>
+      <c r="IY84" s="10"/>
     </row>
-    <row r="55" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="13"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="IW55" s="2"/>
-      <c r="IX55" s="2"/>
+    <row r="85" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="41"/>
+      <c r="I85" s="9"/>
+      <c r="IX85" s="10"/>
+      <c r="IY85" s="10"/>
     </row>
-    <row r="56" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="13"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="IW56" s="2"/>
-      <c r="IX56" s="2"/>
+    <row r="86" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="41"/>
+      <c r="I86" s="9"/>
+      <c r="IX86" s="10"/>
+      <c r="IY86" s="10"/>
     </row>
-    <row r="57" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="13"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="IW57" s="2"/>
-      <c r="IX57" s="2"/>
+    <row r="87" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="41"/>
+      <c r="I87" s="9"/>
+      <c r="IX87" s="10"/>
+      <c r="IY87" s="10"/>
     </row>
-    <row r="58" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="13"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="IW58" s="2"/>
-      <c r="IX58" s="2"/>
+    <row r="88" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="41"/>
+      <c r="I88" s="9"/>
+      <c r="IX88" s="10"/>
+      <c r="IY88" s="10"/>
     </row>
-    <row r="59" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="13"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="IW59" s="2"/>
-      <c r="IX59" s="2"/>
+    <row r="89" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="41"/>
+      <c r="I89" s="9"/>
+      <c r="IX89" s="10"/>
+      <c r="IY89" s="10"/>
     </row>
-    <row r="60" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="13"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="IW60" s="2"/>
-      <c r="IX60" s="2"/>
+    <row r="90" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="41"/>
+      <c r="I90" s="9"/>
+      <c r="IX90" s="10"/>
+      <c r="IY90" s="10"/>
     </row>
-    <row r="61" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="13"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="IW61" s="2"/>
-      <c r="IX61" s="2"/>
+    <row r="91" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="41"/>
+      <c r="I91" s="9"/>
+      <c r="IX91" s="10"/>
+      <c r="IY91" s="10"/>
     </row>
-    <row r="62" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="13"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="IW62" s="2"/>
-      <c r="IX62" s="2"/>
+    <row r="92" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="41"/>
+      <c r="I92" s="9"/>
+      <c r="IX92" s="10"/>
+      <c r="IY92" s="10"/>
     </row>
-    <row r="63" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="13"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="IW63" s="2"/>
-      <c r="IX63" s="2"/>
+    <row r="93" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="41"/>
+      <c r="I93" s="9"/>
+      <c r="IX93" s="10"/>
+      <c r="IY93" s="10"/>
     </row>
-    <row r="64" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="13"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="IW64" s="2"/>
-      <c r="IX64" s="2"/>
+    <row r="94" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F94" s="41"/>
+      <c r="I94" s="9"/>
+      <c r="IX94" s="10"/>
+      <c r="IY94" s="10"/>
     </row>
-    <row r="65" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="13"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="IW65" s="2"/>
-      <c r="IX65" s="2"/>
+    <row r="95" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F95" s="41"/>
+      <c r="I95" s="9"/>
+      <c r="IX95" s="10"/>
+      <c r="IY95" s="10"/>
     </row>
-    <row r="66" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="13"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="IW66" s="2"/>
-      <c r="IX66" s="2"/>
+    <row r="96" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="41"/>
+      <c r="I96" s="9"/>
+      <c r="IX96" s="10"/>
+      <c r="IY96" s="10"/>
     </row>
-    <row r="67" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="13"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="IW67" s="2"/>
-      <c r="IX67" s="2"/>
+    <row r="97" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F97" s="41"/>
+      <c r="I97" s="9"/>
+      <c r="IX97" s="10"/>
+      <c r="IY97" s="10"/>
     </row>
-    <row r="68" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="13"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="IW68" s="2"/>
-      <c r="IX68" s="2"/>
+    <row r="98" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="41"/>
+      <c r="I98" s="9"/>
+      <c r="IX98" s="10"/>
+      <c r="IY98" s="10"/>
     </row>
-    <row r="69" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="13"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="IW69" s="2"/>
-      <c r="IX69" s="2"/>
+    <row r="99" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="41"/>
+      <c r="I99" s="9"/>
+      <c r="IX99" s="10"/>
+      <c r="IY99" s="10"/>
     </row>
-    <row r="70" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="13"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="IW70" s="2"/>
-      <c r="IX70" s="2"/>
+    <row r="100" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="41"/>
+      <c r="I100" s="9"/>
+      <c r="IX100" s="10"/>
+      <c r="IY100" s="10"/>
     </row>
-    <row r="71" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="13"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="IW71" s="2"/>
-      <c r="IX71" s="2"/>
+    <row r="101" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="41"/>
+      <c r="I101" s="9"/>
+      <c r="IX101" s="10"/>
+      <c r="IY101" s="10"/>
     </row>
-    <row r="72" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="13"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="IW72" s="2"/>
-      <c r="IX72" s="2"/>
+    <row r="102" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="41"/>
+      <c r="I102" s="9"/>
+      <c r="IX102" s="10"/>
+      <c r="IY102" s="10"/>
     </row>
-    <row r="73" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="13"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="IW73" s="2"/>
-      <c r="IX73" s="2"/>
+    <row r="103" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="41"/>
+      <c r="I103" s="9"/>
+      <c r="IX103" s="10"/>
+      <c r="IY103" s="10"/>
     </row>
-    <row r="74" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="13"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="IW74" s="2"/>
-      <c r="IX74" s="2"/>
+    <row r="104" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="41"/>
+      <c r="I104" s="9"/>
+      <c r="IX104" s="10"/>
+      <c r="IY104" s="10"/>
     </row>
-    <row r="75" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E75" s="13"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="IW75" s="2"/>
-      <c r="IX75" s="2"/>
+    <row r="105" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="41"/>
+      <c r="I105" s="9"/>
+      <c r="IX105" s="10"/>
+      <c r="IY105" s="10"/>
     </row>
-    <row r="76" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="13"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="IW76" s="2"/>
-      <c r="IX76" s="2"/>
+    <row r="106" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="41"/>
+      <c r="I106" s="9"/>
+      <c r="IX106" s="10"/>
+      <c r="IY106" s="10"/>
     </row>
-    <row r="77" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="13"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="IW77" s="2"/>
-      <c r="IX77" s="2"/>
+    <row r="107" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="41"/>
+      <c r="I107" s="9"/>
+      <c r="IX107" s="10"/>
+      <c r="IY107" s="10"/>
     </row>
-    <row r="78" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="13"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="IW78" s="2"/>
-      <c r="IX78" s="2"/>
+    <row r="108" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="41"/>
+      <c r="I108" s="9"/>
+      <c r="IX108" s="10"/>
+      <c r="IY108" s="10"/>
     </row>
-    <row r="79" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E79" s="13"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="IW79" s="2"/>
-      <c r="IX79" s="2"/>
+    <row r="109" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="41"/>
+      <c r="I109" s="9"/>
+      <c r="IX109" s="10"/>
+      <c r="IY109" s="10"/>
     </row>
-    <row r="80" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E80" s="13"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="IW80" s="2"/>
-      <c r="IX80" s="2"/>
+    <row r="110" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="41"/>
+      <c r="I110" s="9"/>
+      <c r="IX110" s="10"/>
+      <c r="IY110" s="10"/>
     </row>
-    <row r="81" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="13"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="IW81" s="2"/>
-      <c r="IX81" s="2"/>
+    <row r="111" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="41"/>
+      <c r="I111" s="9"/>
+      <c r="IX111" s="10"/>
+      <c r="IY111" s="10"/>
     </row>
-    <row r="82" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="13"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="IW82" s="2"/>
-      <c r="IX82" s="2"/>
+    <row r="112" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="41"/>
+      <c r="I112" s="9"/>
+      <c r="IX112" s="10"/>
+      <c r="IY112" s="10"/>
     </row>
-    <row r="83" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E83" s="13"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="IW83" s="2"/>
-      <c r="IX83" s="2"/>
+    <row r="113" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="41"/>
+      <c r="I113" s="9"/>
+      <c r="IX113" s="10"/>
+      <c r="IY113" s="10"/>
     </row>
-    <row r="84" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E84" s="13"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="IW84" s="2"/>
-      <c r="IX84" s="2"/>
+    <row r="114" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="41"/>
+      <c r="I114" s="9"/>
+      <c r="IX114" s="10"/>
+      <c r="IY114" s="10"/>
     </row>
-    <row r="85" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="13"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="IW85" s="2"/>
-      <c r="IX85" s="2"/>
+    <row r="115" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="41"/>
+      <c r="I115" s="9"/>
+      <c r="IX115" s="10"/>
+      <c r="IY115" s="10"/>
     </row>
-    <row r="86" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E86" s="13"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="IW86" s="2"/>
-      <c r="IX86" s="2"/>
+    <row r="116" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="41"/>
+      <c r="I116" s="9"/>
+      <c r="IX116" s="10"/>
+      <c r="IY116" s="10"/>
     </row>
-    <row r="87" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E87" s="13"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="IW87" s="2"/>
-      <c r="IX87" s="2"/>
+    <row r="117" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="41"/>
+      <c r="I117" s="9"/>
+      <c r="IX117" s="10"/>
+      <c r="IY117" s="10"/>
     </row>
-    <row r="88" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="13"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="IW88" s="2"/>
-      <c r="IX88" s="2"/>
+    <row r="118" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="41"/>
+      <c r="I118" s="9"/>
+      <c r="IX118" s="10"/>
+      <c r="IY118" s="10"/>
     </row>
-    <row r="89" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E89" s="13"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="IW89" s="2"/>
-      <c r="IX89" s="2"/>
+    <row r="119" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="41"/>
+      <c r="I119" s="9"/>
+      <c r="IX119" s="10"/>
+      <c r="IY119" s="10"/>
     </row>
-    <row r="90" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E90" s="13"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="IW90" s="2"/>
-      <c r="IX90" s="2"/>
+    <row r="120" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="41"/>
+      <c r="I120" s="9"/>
+      <c r="IX120" s="10"/>
+      <c r="IY120" s="10"/>
     </row>
-    <row r="91" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E91" s="13"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="IW91" s="2"/>
-      <c r="IX91" s="2"/>
+    <row r="121" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="41"/>
+      <c r="I121" s="9"/>
+      <c r="IX121" s="10"/>
+      <c r="IY121" s="10"/>
     </row>
-    <row r="92" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E92" s="13"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="IW92" s="2"/>
-      <c r="IX92" s="2"/>
+    <row r="122" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="41"/>
+      <c r="I122" s="9"/>
+      <c r="IX122" s="10"/>
+      <c r="IY122" s="10"/>
     </row>
-    <row r="93" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E93" s="13"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="IW93" s="2"/>
-      <c r="IX93" s="2"/>
+    <row r="123" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="41"/>
+      <c r="I123" s="9"/>
+      <c r="IX123" s="10"/>
+      <c r="IY123" s="10"/>
     </row>
-    <row r="94" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E94" s="13"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="IW94" s="2"/>
-      <c r="IX94" s="2"/>
+    <row r="124" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="41"/>
+      <c r="I124" s="9"/>
+      <c r="IX124" s="10"/>
+      <c r="IY124" s="10"/>
     </row>
-    <row r="95" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="13"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="IW95" s="2"/>
-      <c r="IX95" s="2"/>
+    <row r="125" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F125" s="41"/>
+      <c r="I125" s="9"/>
+      <c r="IX125" s="10"/>
+      <c r="IY125" s="10"/>
     </row>
-    <row r="96" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E96" s="13"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="IW96" s="2"/>
-      <c r="IX96" s="2"/>
+    <row r="126" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F126" s="41"/>
+      <c r="I126" s="9"/>
+      <c r="IX126" s="10"/>
+      <c r="IY126" s="10"/>
     </row>
-    <row r="97" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E97" s="13"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="IW97" s="2"/>
-      <c r="IX97" s="2"/>
+    <row r="127" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F127" s="41"/>
+      <c r="I127" s="9"/>
+      <c r="IX127" s="10"/>
+      <c r="IY127" s="10"/>
     </row>
-    <row r="98" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="13"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="IW98" s="2"/>
-      <c r="IX98" s="2"/>
+    <row r="128" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="41"/>
+      <c r="I128" s="9"/>
+      <c r="IX128" s="10"/>
+      <c r="IY128" s="10"/>
     </row>
-    <row r="99" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E99" s="13"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="IW99" s="2"/>
-      <c r="IX99" s="2"/>
+    <row r="129" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="41"/>
+      <c r="I129" s="9"/>
+      <c r="IX129" s="10"/>
+      <c r="IY129" s="10"/>
     </row>
-    <row r="100" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E100" s="13"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="IW100" s="2"/>
-      <c r="IX100" s="2"/>
+    <row r="130" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F130" s="41"/>
+      <c r="I130" s="9"/>
+      <c r="IX130" s="10"/>
+      <c r="IY130" s="10"/>
     </row>
-    <row r="101" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="13"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="IW101" s="2"/>
-      <c r="IX101" s="2"/>
+    <row r="131" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="41"/>
+      <c r="I131" s="9"/>
+      <c r="IX131" s="10"/>
+      <c r="IY131" s="10"/>
     </row>
-    <row r="102" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E102" s="13"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="IW102" s="2"/>
-      <c r="IX102" s="2"/>
+    <row r="132" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="41"/>
+      <c r="I132" s="9"/>
+      <c r="IX132" s="10"/>
+      <c r="IY132" s="10"/>
     </row>
-    <row r="103" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E103" s="13"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="IW103" s="2"/>
-      <c r="IX103" s="2"/>
+    <row r="133" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F133" s="41"/>
+      <c r="I133" s="9"/>
+      <c r="IX133" s="10"/>
+      <c r="IY133" s="10"/>
     </row>
-    <row r="104" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="13"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="IW104" s="2"/>
-      <c r="IX104" s="2"/>
+    <row r="134" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="41"/>
+      <c r="I134" s="9"/>
+      <c r="IX134" s="10"/>
+      <c r="IY134" s="10"/>
     </row>
-    <row r="105" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E105" s="13"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="IW105" s="2"/>
-      <c r="IX105" s="2"/>
+    <row r="135" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F135" s="41"/>
+      <c r="I135" s="9"/>
+      <c r="IX135" s="10"/>
+      <c r="IY135" s="10"/>
     </row>
-    <row r="106" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E106" s="13"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="IW106" s="2"/>
-      <c r="IX106" s="2"/>
+    <row r="136" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F136" s="41"/>
+      <c r="I136" s="9"/>
+      <c r="IX136" s="10"/>
+      <c r="IY136" s="10"/>
     </row>
-    <row r="107" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E107" s="13"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="IW107" s="2"/>
-      <c r="IX107" s="2"/>
+    <row r="137" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="41"/>
+      <c r="I137" s="9"/>
+      <c r="IX137" s="10"/>
+      <c r="IY137" s="10"/>
     </row>
-    <row r="108" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="13"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="IW108" s="2"/>
-      <c r="IX108" s="2"/>
+    <row r="138" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F138" s="41"/>
+      <c r="I138" s="9"/>
+      <c r="IX138" s="10"/>
+      <c r="IY138" s="10"/>
     </row>
-    <row r="109" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E109" s="13"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="IW109" s="2"/>
-      <c r="IX109" s="2"/>
+    <row r="139" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="41"/>
+      <c r="I139" s="9"/>
+      <c r="IX139" s="10"/>
+      <c r="IY139" s="10"/>
     </row>
-    <row r="110" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E110" s="13"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="IW110" s="2"/>
-      <c r="IX110" s="2"/>
+    <row r="140" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F140" s="41"/>
+      <c r="I140" s="9"/>
+      <c r="IX140" s="10"/>
+      <c r="IY140" s="10"/>
     </row>
-    <row r="111" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E111" s="13"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="IW111" s="2"/>
-      <c r="IX111" s="2"/>
+    <row r="141" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="41"/>
+      <c r="I141" s="9"/>
+      <c r="IX141" s="10"/>
+      <c r="IY141" s="10"/>
     </row>
-    <row r="112" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E112" s="13"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="IW112" s="2"/>
-      <c r="IX112" s="2"/>
+    <row r="142" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="41"/>
+      <c r="I142" s="9"/>
+      <c r="IX142" s="10"/>
+      <c r="IY142" s="10"/>
     </row>
-    <row r="113" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E113" s="13"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="IW113" s="2"/>
-      <c r="IX113" s="2"/>
+    <row r="143" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="41"/>
+      <c r="I143" s="9"/>
+      <c r="IX143" s="10"/>
+      <c r="IY143" s="10"/>
     </row>
-    <row r="114" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E114" s="13"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="IW114" s="2"/>
-      <c r="IX114" s="2"/>
+    <row r="144" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F144" s="41"/>
+      <c r="I144" s="9"/>
+      <c r="IX144" s="10"/>
+      <c r="IY144" s="10"/>
     </row>
-    <row r="115" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E115" s="13"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="IW115" s="2"/>
-      <c r="IX115" s="2"/>
+    <row r="145" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F145" s="41"/>
+      <c r="I145" s="9"/>
+      <c r="IX145" s="10"/>
+      <c r="IY145" s="10"/>
     </row>
-    <row r="116" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="13"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="IW116" s="2"/>
-      <c r="IX116" s="2"/>
+    <row r="146" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F146" s="41"/>
+      <c r="I146" s="9"/>
+      <c r="IX146" s="10"/>
+      <c r="IY146" s="10"/>
     </row>
-    <row r="117" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E117" s="13"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="IW117" s="2"/>
-      <c r="IX117" s="2"/>
+    <row r="147" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="41"/>
+      <c r="I147" s="9"/>
+      <c r="IX147" s="10"/>
+      <c r="IY147" s="10"/>
     </row>
-    <row r="118" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E118" s="13"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="IW118" s="2"/>
-      <c r="IX118" s="2"/>
+    <row r="148" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="41"/>
+      <c r="I148" s="9"/>
+      <c r="IX148" s="10"/>
+      <c r="IY148" s="10"/>
     </row>
-    <row r="119" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="13"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="IW119" s="2"/>
-      <c r="IX119" s="2"/>
+    <row r="149" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F149" s="41"/>
+      <c r="I149" s="9"/>
+      <c r="IX149" s="10"/>
+      <c r="IY149" s="10"/>
     </row>
-    <row r="120" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E120" s="13"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="IW120" s="2"/>
-      <c r="IX120" s="2"/>
+    <row r="150" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F150" s="41"/>
+      <c r="I150" s="9"/>
+      <c r="IX150" s="10"/>
+      <c r="IY150" s="10"/>
     </row>
-    <row r="121" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="13"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="IW121" s="2"/>
-      <c r="IX121" s="2"/>
+    <row r="151" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F151" s="41"/>
+      <c r="I151" s="9"/>
+      <c r="IX151" s="10"/>
+      <c r="IY151" s="10"/>
     </row>
-    <row r="122" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E122" s="13"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="IW122" s="2"/>
-      <c r="IX122" s="2"/>
+    <row r="152" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F152" s="41"/>
+      <c r="I152" s="9"/>
+      <c r="IX152" s="10"/>
+      <c r="IY152" s="10"/>
     </row>
-    <row r="123" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" s="13"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="IW123" s="2"/>
-      <c r="IX123" s="2"/>
+    <row r="153" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F153" s="41"/>
+      <c r="I153" s="9"/>
+      <c r="IX153" s="10"/>
+      <c r="IY153" s="10"/>
     </row>
-    <row r="124" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="13"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="IW124" s="2"/>
-      <c r="IX124" s="2"/>
+    <row r="154" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F154" s="41"/>
+      <c r="I154" s="9"/>
+      <c r="IX154" s="10"/>
+      <c r="IY154" s="10"/>
     </row>
-    <row r="125" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E125" s="13"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="IW125" s="2"/>
-      <c r="IX125" s="2"/>
+    <row r="155" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F155" s="41"/>
+      <c r="I155" s="9"/>
+      <c r="IX155" s="10"/>
+      <c r="IY155" s="10"/>
     </row>
-    <row r="126" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E126" s="13"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="IW126" s="2"/>
-      <c r="IX126" s="2"/>
+    <row r="156" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F156" s="41"/>
+      <c r="I156" s="9"/>
+      <c r="IX156" s="10"/>
+      <c r="IY156" s="10"/>
     </row>
-    <row r="127" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E127" s="13"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="IW127" s="2"/>
-      <c r="IX127" s="2"/>
+    <row r="157" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F157" s="41"/>
+      <c r="I157" s="9"/>
+      <c r="IX157" s="10"/>
+      <c r="IY157" s="10"/>
     </row>
-    <row r="128" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="13"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="IW128" s="2"/>
-      <c r="IX128" s="2"/>
+    <row r="158" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F158" s="41"/>
+      <c r="I158" s="9"/>
+      <c r="IX158" s="10"/>
+      <c r="IY158" s="10"/>
     </row>
-    <row r="129" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="13"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="IW129" s="2"/>
-      <c r="IX129" s="2"/>
+    <row r="159" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="41"/>
+      <c r="I159" s="9"/>
+      <c r="IX159" s="10"/>
+      <c r="IY159" s="10"/>
     </row>
-    <row r="130" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="13"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="IW130" s="2"/>
-      <c r="IX130" s="2"/>
+    <row r="160" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="41"/>
+      <c r="I160" s="9"/>
+      <c r="IX160" s="10"/>
+      <c r="IY160" s="10"/>
     </row>
-    <row r="131" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E131" s="13"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="IW131" s="2"/>
-      <c r="IX131" s="2"/>
+    <row r="161" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="41"/>
+      <c r="I161" s="9"/>
+      <c r="IX161" s="10"/>
+      <c r="IY161" s="10"/>
     </row>
-    <row r="132" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E132" s="13"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="IW132" s="2"/>
-      <c r="IX132" s="2"/>
+    <row r="162" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="41"/>
+      <c r="I162" s="9"/>
+      <c r="IX162" s="10"/>
+      <c r="IY162" s="10"/>
     </row>
-    <row r="133" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E133" s="13"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="IW133" s="2"/>
-      <c r="IX133" s="2"/>
+    <row r="163" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F163" s="41"/>
+      <c r="I163" s="9"/>
+      <c r="IX163" s="10"/>
+      <c r="IY163" s="10"/>
     </row>
-    <row r="134" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E134" s="13"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="IW134" s="2"/>
-      <c r="IX134" s="2"/>
+    <row r="164" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="41"/>
+      <c r="I164" s="9"/>
+      <c r="IX164" s="10"/>
+      <c r="IY164" s="10"/>
     </row>
-    <row r="135" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="13"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="IW135" s="2"/>
-      <c r="IX135" s="2"/>
+    <row r="165" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F165" s="41"/>
+      <c r="I165" s="9"/>
+      <c r="IX165" s="10"/>
+      <c r="IY165" s="10"/>
     </row>
-    <row r="136" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="13"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="IW136" s="2"/>
-      <c r="IX136" s="2"/>
+    <row r="166" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F166" s="41"/>
+      <c r="I166" s="9"/>
+      <c r="IX166" s="10"/>
+      <c r="IY166" s="10"/>
     </row>
-    <row r="137" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="13"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="IW137" s="2"/>
-      <c r="IX137" s="2"/>
+    <row r="167" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F167" s="41"/>
+      <c r="I167" s="9"/>
+      <c r="IX167" s="10"/>
+      <c r="IY167" s="10"/>
     </row>
-    <row r="138" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="13"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="IW138" s="2"/>
-      <c r="IX138" s="2"/>
+    <row r="168" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F168" s="41"/>
+      <c r="I168" s="9"/>
+      <c r="IX168" s="10"/>
+      <c r="IY168" s="10"/>
     </row>
-    <row r="139" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="13"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="IW139" s="2"/>
-      <c r="IX139" s="2"/>
+    <row r="169" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="41"/>
+      <c r="I169" s="9"/>
+      <c r="IX169" s="10"/>
+      <c r="IY169" s="10"/>
     </row>
-    <row r="140" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="13"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="IW140" s="2"/>
-      <c r="IX140" s="2"/>
+    <row r="170" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F170" s="41"/>
+      <c r="I170" s="9"/>
+      <c r="IX170" s="10"/>
+      <c r="IY170" s="10"/>
     </row>
-    <row r="141" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="13"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="IW141" s="2"/>
-      <c r="IX141" s="2"/>
+    <row r="171" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F171" s="41"/>
+      <c r="I171" s="9"/>
+      <c r="IX171" s="10"/>
+      <c r="IY171" s="10"/>
     </row>
-    <row r="142" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="13"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="IW142" s="2"/>
-      <c r="IX142" s="2"/>
+    <row r="172" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F172" s="41"/>
+      <c r="I172" s="9"/>
+      <c r="IX172" s="10"/>
+      <c r="IY172" s="10"/>
     </row>
-    <row r="143" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="13"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="IW143" s="2"/>
-      <c r="IX143" s="2"/>
+    <row r="173" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F173" s="41"/>
+      <c r="I173" s="9"/>
+      <c r="IX173" s="10"/>
+      <c r="IY173" s="10"/>
     </row>
-    <row r="144" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="13"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="IW144" s="2"/>
-      <c r="IX144" s="2"/>
+    <row r="174" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F174" s="41"/>
+      <c r="I174" s="9"/>
+      <c r="IX174" s="10"/>
+      <c r="IY174" s="10"/>
     </row>
-    <row r="145" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="13"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="IW145" s="2"/>
-      <c r="IX145" s="2"/>
+    <row r="175" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F175" s="41"/>
+      <c r="I175" s="9"/>
+      <c r="IX175" s="10"/>
+      <c r="IY175" s="10"/>
     </row>
-    <row r="146" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="13"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="IW146" s="2"/>
-      <c r="IX146" s="2"/>
+    <row r="176" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F176" s="41"/>
+      <c r="I176" s="9"/>
+      <c r="IX176" s="10"/>
+      <c r="IY176" s="10"/>
     </row>
-    <row r="147" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="13"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="IW147" s="2"/>
-      <c r="IX147" s="2"/>
+    <row r="177" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F177" s="41"/>
+      <c r="I177" s="9"/>
+      <c r="IX177" s="10"/>
+      <c r="IY177" s="10"/>
     </row>
-    <row r="148" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="13"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="IW148" s="2"/>
-      <c r="IX148" s="2"/>
+    <row r="178" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F178" s="41"/>
+      <c r="I178" s="9"/>
+      <c r="IX178" s="10"/>
+      <c r="IY178" s="10"/>
     </row>
-    <row r="149" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="13"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="IW149" s="2"/>
-      <c r="IX149" s="2"/>
+    <row r="179" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F179" s="41"/>
+      <c r="I179" s="9"/>
+      <c r="IX179" s="10"/>
+      <c r="IY179" s="10"/>
     </row>
-    <row r="150" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="13"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="IW150" s="2"/>
-      <c r="IX150" s="2"/>
+    <row r="180" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F180" s="41"/>
+      <c r="I180" s="9"/>
+      <c r="IX180" s="10"/>
+      <c r="IY180" s="10"/>
     </row>
-    <row r="151" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151" s="13"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="IW151" s="2"/>
-      <c r="IX151" s="2"/>
+    <row r="181" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F181" s="41"/>
+      <c r="I181" s="9"/>
+      <c r="IX181" s="10"/>
+      <c r="IY181" s="10"/>
     </row>
-    <row r="152" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="13"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="IW152" s="2"/>
-      <c r="IX152" s="2"/>
+    <row r="182" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="41"/>
+      <c r="I182" s="9"/>
+      <c r="IX182" s="10"/>
+      <c r="IY182" s="10"/>
     </row>
-    <row r="153" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E153" s="13"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="IW153" s="2"/>
-      <c r="IX153" s="2"/>
+    <row r="183" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F183" s="41"/>
+      <c r="I183" s="9"/>
+      <c r="IX183" s="10"/>
+      <c r="IY183" s="10"/>
     </row>
-    <row r="154" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E154" s="13"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="IW154" s="2"/>
-      <c r="IX154" s="2"/>
+    <row r="184" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F184" s="41"/>
+      <c r="I184" s="9"/>
+      <c r="IX184" s="10"/>
+      <c r="IY184" s="10"/>
     </row>
-    <row r="155" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E155" s="13"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="IW155" s="2"/>
-      <c r="IX155" s="2"/>
+    <row r="185" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F185" s="41"/>
+      <c r="I185" s="9"/>
+      <c r="IX185" s="10"/>
+      <c r="IY185" s="10"/>
     </row>
-    <row r="156" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E156" s="13"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="IW156" s="2"/>
-      <c r="IX156" s="2"/>
+    <row r="186" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F186" s="41"/>
+      <c r="I186" s="9"/>
+      <c r="IX186" s="10"/>
+      <c r="IY186" s="10"/>
     </row>
-    <row r="157" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E157" s="13"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="IW157" s="2"/>
-      <c r="IX157" s="2"/>
+    <row r="187" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F187" s="41"/>
+      <c r="I187" s="9"/>
+      <c r="IX187" s="10"/>
+      <c r="IY187" s="10"/>
     </row>
-    <row r="158" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E158" s="13"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="IW158" s="2"/>
-      <c r="IX158" s="2"/>
+    <row r="188" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F188" s="41"/>
+      <c r="I188" s="9"/>
+      <c r="IX188" s="10"/>
+      <c r="IY188" s="10"/>
     </row>
-    <row r="159" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E159" s="13"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="IW159" s="2"/>
-      <c r="IX159" s="2"/>
+    <row r="189" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F189" s="41"/>
+      <c r="I189" s="9"/>
+      <c r="IX189" s="10"/>
+      <c r="IY189" s="10"/>
     </row>
-    <row r="160" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E160" s="13"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="IW160" s="2"/>
-      <c r="IX160" s="2"/>
+    <row r="190" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F190" s="41"/>
+      <c r="I190" s="9"/>
+      <c r="IX190" s="10"/>
+      <c r="IY190" s="10"/>
     </row>
-    <row r="161" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="13"/>
-      <c r="F161" s="26"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="IW161" s="2"/>
-      <c r="IX161" s="2"/>
+    <row r="191" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F191" s="41"/>
+      <c r="I191" s="9"/>
+      <c r="IX191" s="10"/>
+      <c r="IY191" s="10"/>
     </row>
-    <row r="162" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E162" s="13"/>
-      <c r="F162" s="26"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="IW162" s="2"/>
-      <c r="IX162" s="2"/>
+    <row r="192" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F192" s="41"/>
+      <c r="I192" s="9"/>
+      <c r="IX192" s="10"/>
+      <c r="IY192" s="10"/>
     </row>
-    <row r="163" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E163" s="13"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="IW163" s="2"/>
-      <c r="IX163" s="2"/>
+    <row r="193" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F193" s="41"/>
+      <c r="I193" s="9"/>
+      <c r="IX193" s="10"/>
+      <c r="IY193" s="10"/>
     </row>
-    <row r="164" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E164" s="13"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="IW164" s="2"/>
-      <c r="IX164" s="2"/>
+    <row r="194" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F194" s="41"/>
+      <c r="I194" s="9"/>
+      <c r="IX194" s="10"/>
+      <c r="IY194" s="10"/>
     </row>
-    <row r="165" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E165" s="13"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="IW165" s="2"/>
-      <c r="IX165" s="2"/>
+    <row r="195" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F195" s="41"/>
+      <c r="I195" s="9"/>
+      <c r="IX195" s="10"/>
+      <c r="IY195" s="10"/>
     </row>
-    <row r="166" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E166" s="13"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="IW166" s="2"/>
-      <c r="IX166" s="2"/>
+    <row r="196" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F196" s="41"/>
+      <c r="I196" s="9"/>
+      <c r="IX196" s="10"/>
+      <c r="IY196" s="10"/>
     </row>
-    <row r="167" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E167" s="13"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="IW167" s="2"/>
-      <c r="IX167" s="2"/>
+    <row r="197" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F197" s="41"/>
+      <c r="I197" s="9"/>
+      <c r="IX197" s="10"/>
+      <c r="IY197" s="10"/>
     </row>
-    <row r="168" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E168" s="13"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="IW168" s="2"/>
-      <c r="IX168" s="2"/>
+    <row r="198" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F198" s="41"/>
+      <c r="I198" s="9"/>
+      <c r="IX198" s="10"/>
+      <c r="IY198" s="10"/>
     </row>
-    <row r="169" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E169" s="13"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="IW169" s="2"/>
-      <c r="IX169" s="2"/>
+    <row r="199" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F199" s="41"/>
+      <c r="I199" s="9"/>
+      <c r="IX199" s="10"/>
+      <c r="IY199" s="10"/>
     </row>
-    <row r="170" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E170" s="13"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="IW170" s="2"/>
-      <c r="IX170" s="2"/>
+    <row r="200" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F200" s="41"/>
+      <c r="I200" s="9"/>
+      <c r="IX200" s="10"/>
+      <c r="IY200" s="10"/>
     </row>
-    <row r="171" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E171" s="13"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="IW171" s="2"/>
-      <c r="IX171" s="2"/>
-    </row>
-    <row r="172" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E172" s="13"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="IW172" s="2"/>
-      <c r="IX172" s="2"/>
-    </row>
-    <row r="173" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E173" s="13"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="IW173" s="2"/>
-      <c r="IX173" s="2"/>
-    </row>
-    <row r="174" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E174" s="13"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="IW174" s="2"/>
-      <c r="IX174" s="2"/>
-    </row>
-    <row r="175" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E175" s="13"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="IW175" s="2"/>
-      <c r="IX175" s="2"/>
-    </row>
-    <row r="176" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E176" s="13"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="IW176" s="2"/>
-      <c r="IX176" s="2"/>
-    </row>
-    <row r="177" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E177" s="13"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="IW177" s="2"/>
-      <c r="IX177" s="2"/>
-    </row>
-    <row r="178" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E178" s="13"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="IW178" s="2"/>
-      <c r="IX178" s="2"/>
-    </row>
-    <row r="179" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E179" s="13"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="IW179" s="2"/>
-      <c r="IX179" s="2"/>
-    </row>
-    <row r="180" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E180" s="13"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="IW180" s="2"/>
-      <c r="IX180" s="2"/>
-    </row>
-    <row r="181" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E181" s="13"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="IW181" s="2"/>
-      <c r="IX181" s="2"/>
-    </row>
-    <row r="182" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E182" s="13"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="IW182" s="2"/>
-      <c r="IX182" s="2"/>
-    </row>
-    <row r="183" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E183" s="13"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="IW183" s="2"/>
-      <c r="IX183" s="2"/>
-    </row>
-    <row r="184" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E184" s="13"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="IW184" s="2"/>
-      <c r="IX184" s="2"/>
-    </row>
-    <row r="185" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E185" s="13"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="IW185" s="2"/>
-      <c r="IX185" s="2"/>
-    </row>
-    <row r="186" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E186" s="13"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="IW186" s="2"/>
-      <c r="IX186" s="2"/>
-    </row>
-    <row r="187" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E187" s="13"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="IW187" s="2"/>
-      <c r="IX187" s="2"/>
-    </row>
-    <row r="188" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E188" s="13"/>
-      <c r="F188" s="26"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="IW188" s="2"/>
-      <c r="IX188" s="2"/>
-    </row>
-    <row r="189" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E189" s="13"/>
-      <c r="F189" s="26"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="IW189" s="2"/>
-      <c r="IX189" s="2"/>
-    </row>
-    <row r="190" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E190" s="13"/>
-      <c r="F190" s="26"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="IW190" s="2"/>
-      <c r="IX190" s="2"/>
-    </row>
-    <row r="191" spans="5:258" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E191" s="13"/>
-      <c r="F191" s="26"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="IW191" s="2"/>
-      <c r="IX191" s="2"/>
+    <row r="201" spans="6:259" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F201" s="41"/>
+      <c r="I201" s="9"/>
+      <c r="IX201" s="10"/>
+      <c r="IY201" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H36">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I46">
       <formula1>重要度</formula1>
     </dataValidation>
   </dataValidations>
@@ -28730,8 +28868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28750,802 +28888,802 @@
   </sheetPr>
   <dimension ref="A1:IW30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="3" width="16.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="44.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="15" customWidth="1"/>
-    <col min="9" max="257" width="16.375" style="13" customWidth="1"/>
-    <col min="258" max="16384" width="16.375" style="14"/>
+    <col min="1" max="1" width="5.625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="44.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="11" customWidth="1"/>
+    <col min="9" max="257" width="16.375" style="9" customWidth="1"/>
+    <col min="258" max="16384" width="16.375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:257" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="15"/>
-      <c r="BW1" s="15"/>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="15"/>
-      <c r="BZ1" s="15"/>
-      <c r="CA1" s="15"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
-      <c r="CJ1" s="15"/>
-      <c r="CK1" s="15"/>
-      <c r="CL1" s="15"/>
-      <c r="CM1" s="15"/>
-      <c r="CN1" s="15"/>
-      <c r="CO1" s="15"/>
-      <c r="CP1" s="15"/>
-      <c r="CQ1" s="15"/>
-      <c r="CR1" s="15"/>
-      <c r="CS1" s="15"/>
-      <c r="CT1" s="15"/>
-      <c r="CU1" s="15"/>
-      <c r="CV1" s="15"/>
-      <c r="CW1" s="15"/>
-      <c r="CX1" s="15"/>
-      <c r="CY1" s="15"/>
-      <c r="CZ1" s="15"/>
-      <c r="DA1" s="15"/>
-      <c r="DB1" s="15"/>
-      <c r="DC1" s="15"/>
-      <c r="DD1" s="15"/>
-      <c r="DE1" s="15"/>
-      <c r="DF1" s="15"/>
-      <c r="DG1" s="15"/>
-      <c r="DH1" s="15"/>
-      <c r="DI1" s="15"/>
-      <c r="DJ1" s="15"/>
-      <c r="DK1" s="15"/>
-      <c r="DL1" s="15"/>
-      <c r="DM1" s="15"/>
-      <c r="DN1" s="15"/>
-      <c r="DO1" s="15"/>
-      <c r="DP1" s="15"/>
-      <c r="DQ1" s="15"/>
-      <c r="DR1" s="15"/>
-      <c r="DS1" s="15"/>
-      <c r="DT1" s="15"/>
-      <c r="DU1" s="15"/>
-      <c r="DV1" s="15"/>
-      <c r="DW1" s="15"/>
-      <c r="DX1" s="15"/>
-      <c r="DY1" s="15"/>
-      <c r="DZ1" s="15"/>
-      <c r="EA1" s="15"/>
-      <c r="EB1" s="15"/>
-      <c r="EC1" s="15"/>
-      <c r="ED1" s="15"/>
-      <c r="EE1" s="15"/>
-      <c r="EF1" s="15"/>
-      <c r="EG1" s="15"/>
-      <c r="EH1" s="15"/>
-      <c r="EI1" s="15"/>
-      <c r="EJ1" s="15"/>
-      <c r="EK1" s="15"/>
-      <c r="EL1" s="15"/>
-      <c r="EM1" s="15"/>
-      <c r="EN1" s="15"/>
-      <c r="EO1" s="15"/>
-      <c r="EP1" s="15"/>
-      <c r="EQ1" s="15"/>
-      <c r="ER1" s="15"/>
-      <c r="ES1" s="15"/>
-      <c r="ET1" s="15"/>
-      <c r="EU1" s="15"/>
-      <c r="EV1" s="15"/>
-      <c r="EW1" s="15"/>
-      <c r="EX1" s="15"/>
-      <c r="EY1" s="15"/>
-      <c r="EZ1" s="15"/>
-      <c r="FA1" s="15"/>
-      <c r="FB1" s="15"/>
-      <c r="FC1" s="15"/>
-      <c r="FD1" s="15"/>
-      <c r="FE1" s="15"/>
-      <c r="FF1" s="15"/>
-      <c r="FG1" s="15"/>
-      <c r="FH1" s="15"/>
-      <c r="FI1" s="15"/>
-      <c r="FJ1" s="15"/>
-      <c r="FK1" s="15"/>
-      <c r="FL1" s="15"/>
-      <c r="FM1" s="15"/>
-      <c r="FN1" s="15"/>
-      <c r="FO1" s="15"/>
-      <c r="FP1" s="15"/>
-      <c r="FQ1" s="15"/>
-      <c r="FR1" s="15"/>
-      <c r="FS1" s="15"/>
-      <c r="FT1" s="15"/>
-      <c r="FU1" s="15"/>
-      <c r="FV1" s="15"/>
-      <c r="FW1" s="15"/>
-      <c r="FX1" s="15"/>
-      <c r="FY1" s="15"/>
-      <c r="FZ1" s="15"/>
-      <c r="GA1" s="15"/>
-      <c r="GB1" s="15"/>
-      <c r="GC1" s="15"/>
-      <c r="GD1" s="15"/>
-      <c r="GE1" s="15"/>
-      <c r="GF1" s="15"/>
-      <c r="GG1" s="15"/>
-      <c r="GH1" s="15"/>
-      <c r="GI1" s="15"/>
-      <c r="GJ1" s="15"/>
-      <c r="GK1" s="15"/>
-      <c r="GL1" s="15"/>
-      <c r="GM1" s="15"/>
-      <c r="GN1" s="15"/>
-      <c r="GO1" s="15"/>
-      <c r="GP1" s="15"/>
-      <c r="GQ1" s="15"/>
-      <c r="GR1" s="15"/>
-      <c r="GS1" s="15"/>
-      <c r="GT1" s="15"/>
-      <c r="GU1" s="15"/>
-      <c r="GV1" s="15"/>
-      <c r="GW1" s="15"/>
-      <c r="GX1" s="15"/>
-      <c r="GY1" s="15"/>
-      <c r="GZ1" s="15"/>
-      <c r="HA1" s="15"/>
-      <c r="HB1" s="15"/>
-      <c r="HC1" s="15"/>
-      <c r="HD1" s="15"/>
-      <c r="HE1" s="15"/>
-      <c r="HF1" s="15"/>
-      <c r="HG1" s="15"/>
-      <c r="HH1" s="15"/>
-      <c r="HI1" s="15"/>
-      <c r="HJ1" s="15"/>
-      <c r="HK1" s="15"/>
-      <c r="HL1" s="15"/>
-      <c r="HM1" s="15"/>
-      <c r="HN1" s="15"/>
-      <c r="HO1" s="15"/>
-      <c r="HP1" s="15"/>
-      <c r="HQ1" s="15"/>
-      <c r="HR1" s="15"/>
-      <c r="HS1" s="15"/>
-      <c r="HT1" s="15"/>
-      <c r="HU1" s="15"/>
-      <c r="HV1" s="15"/>
-      <c r="HW1" s="15"/>
-      <c r="HX1" s="15"/>
-      <c r="HY1" s="15"/>
-      <c r="HZ1" s="15"/>
-      <c r="IA1" s="15"/>
-      <c r="IB1" s="15"/>
-      <c r="IC1" s="15"/>
-      <c r="ID1" s="15"/>
-      <c r="IE1" s="15"/>
-      <c r="IF1" s="15"/>
-      <c r="IG1" s="15"/>
-      <c r="IH1" s="15"/>
-      <c r="II1" s="15"/>
-      <c r="IJ1" s="15"/>
-      <c r="IK1" s="15"/>
-      <c r="IL1" s="15"/>
-      <c r="IM1" s="15"/>
-      <c r="IN1" s="15"/>
-      <c r="IO1" s="15"/>
-      <c r="IP1" s="15"/>
-      <c r="IQ1" s="15"/>
-      <c r="IR1" s="15"/>
-      <c r="IS1" s="15"/>
-      <c r="IT1" s="15"/>
-      <c r="IU1" s="15"/>
-      <c r="IV1" s="15"/>
-      <c r="IW1" s="15"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11"/>
+      <c r="EW1" s="11"/>
+      <c r="EX1" s="11"/>
+      <c r="EY1" s="11"/>
+      <c r="EZ1" s="11"/>
+      <c r="FA1" s="11"/>
+      <c r="FB1" s="11"/>
+      <c r="FC1" s="11"/>
+      <c r="FD1" s="11"/>
+      <c r="FE1" s="11"/>
+      <c r="FF1" s="11"/>
+      <c r="FG1" s="11"/>
+      <c r="FH1" s="11"/>
+      <c r="FI1" s="11"/>
+      <c r="FJ1" s="11"/>
+      <c r="FK1" s="11"/>
+      <c r="FL1" s="11"/>
+      <c r="FM1" s="11"/>
+      <c r="FN1" s="11"/>
+      <c r="FO1" s="11"/>
+      <c r="FP1" s="11"/>
+      <c r="FQ1" s="11"/>
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11"/>
+      <c r="FT1" s="11"/>
+      <c r="FU1" s="11"/>
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="11"/>
+      <c r="FY1" s="11"/>
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="11"/>
+      <c r="GC1" s="11"/>
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="11"/>
+      <c r="GG1" s="11"/>
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="11"/>
+      <c r="GK1" s="11"/>
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="11"/>
+      <c r="GO1" s="11"/>
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="11"/>
+      <c r="GS1" s="11"/>
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="11"/>
+      <c r="GW1" s="11"/>
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="11"/>
+      <c r="HA1" s="11"/>
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="11"/>
+      <c r="HE1" s="11"/>
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="11"/>
+      <c r="HI1" s="11"/>
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="11"/>
+      <c r="HM1" s="11"/>
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="11"/>
+      <c r="HQ1" s="11"/>
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="11"/>
+      <c r="HY1" s="11"/>
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="11"/>
+      <c r="IC1" s="11"/>
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="11"/>
+      <c r="IG1" s="11"/>
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="11"/>
+      <c r="IK1" s="11"/>
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="11"/>
+      <c r="IO1" s="11"/>
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="11"/>
+      <c r="IS1" s="11"/>
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="11"/>
+      <c r="IW1" s="11"/>
     </row>
     <row r="2" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="46" t="s">
-        <v>72</v>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="46" t="s">
-        <v>70</v>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="46" t="s">
-        <v>70</v>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="46" t="s">
-        <v>72</v>
+      <c r="A5" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:257" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="46" t="s">
-        <v>72</v>
+      <c r="A6" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="46" t="s">
-        <v>72</v>
+      <c r="A7" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="46" t="s">
-        <v>72</v>
+      <c r="A8" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="46" t="s">
-        <v>72</v>
+      <c r="E9" s="7"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="46" t="s">
-        <v>72</v>
+      <c r="A10" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="46" t="s">
-        <v>72</v>
+      <c r="A11" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="46"/>
+      <c r="A12" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="46" t="s">
-        <v>72</v>
+      <c r="A13" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="46" t="s">
-        <v>72</v>
+      <c r="A14" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="46" t="s">
-        <v>72</v>
+      <c r="A15" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:257" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="46" t="s">
-        <v>72</v>
+      <c r="A16" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="46" t="s">
-        <v>72</v>
+      <c r="A17" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="46" t="s">
-        <v>72</v>
+      <c r="A18" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="46" t="s">
-        <v>72</v>
+      <c r="A19" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="46" t="s">
-        <v>72</v>
+      <c r="A20" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="46" t="s">
-        <v>72</v>
+      <c r="A21" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="46" t="s">
-        <v>72</v>
+      <c r="A22" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="46" t="s">
-        <v>72</v>
+      <c r="A23" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="46" t="s">
-        <v>72</v>
+      <c r="A24" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="46" t="s">
-        <v>72</v>
+      <c r="A25" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="46" t="s">
-        <v>72</v>
+      <c r="A26" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="46" t="s">
-        <v>70</v>
+      <c r="A27" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="46" t="s">
-        <v>70</v>
+      <c r="A28" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="46" t="s">
-        <v>70</v>
+      <c r="A29" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="46"/>
+      <c r="A30" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -29566,7 +29704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
@@ -29589,367 +29727,367 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="155.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <f t="shared" ref="A3:A24" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="185.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -29962,4 +30100,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/要件定義.xlsx
+++ b/documentation/要件定義.xlsx
@@ -26716,8 +26716,8 @@
   <dimension ref="A1:IY201"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27219,7 +27219,7 @@
         <v>247</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:259" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -27358,7 +27358,7 @@
         <v>205</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -27480,7 +27480,7 @@
         <v>233</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -27684,7 +27684,7 @@
         <v>234</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:259" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -30112,5 +30112,6 @@
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>